--- a/Documents/CalculatorStates.xlsx
+++ b/Documents/CalculatorStates.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
